--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.449420333333333</v>
+        <v>0.01838633333333333</v>
       </c>
       <c r="H2">
-        <v>16.348261</v>
+        <v>0.055159</v>
       </c>
       <c r="I2">
-        <v>0.8985142489564721</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="J2">
-        <v>0.8985142489564723</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N2">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P2">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q2">
-        <v>54.49728225582167</v>
+        <v>0.03922620027444445</v>
       </c>
       <c r="R2">
-        <v>490.475540302395</v>
+        <v>0.35303580247</v>
       </c>
       <c r="S2">
-        <v>0.5675333853142576</v>
+        <v>0.0008702565268657785</v>
       </c>
       <c r="T2">
-        <v>0.5675333853142576</v>
+        <v>0.0008702565268657784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.449420333333333</v>
+        <v>0.01838633333333333</v>
       </c>
       <c r="H3">
-        <v>16.348261</v>
+        <v>0.055159</v>
       </c>
       <c r="I3">
-        <v>0.8985142489564721</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="J3">
-        <v>0.8985142489564723</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P3">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q3">
-        <v>23.24065150813111</v>
+        <v>0.07841391182444445</v>
       </c>
       <c r="R3">
-        <v>209.16586357318</v>
+        <v>0.70572520642</v>
       </c>
       <c r="S3">
-        <v>0.2420275852546675</v>
+        <v>0.00173965915854354</v>
       </c>
       <c r="T3">
-        <v>0.2420275852546675</v>
+        <v>0.00173965915854354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.449420333333333</v>
+        <v>0.01838633333333333</v>
       </c>
       <c r="H4">
-        <v>16.348261</v>
+        <v>0.055159</v>
       </c>
       <c r="I4">
-        <v>0.8985142489564721</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="J4">
-        <v>0.8985142489564723</v>
+        <v>0.003339500866342531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.567455</v>
+        <v>1.788586</v>
       </c>
       <c r="N4">
-        <v>4.702364999999999</v>
+        <v>5.365758</v>
       </c>
       <c r="O4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="P4">
-        <v>0.09900040927659938</v>
+        <v>0.2184713255464024</v>
       </c>
       <c r="Q4">
-        <v>8.541721148584999</v>
+        <v>0.03288553839133333</v>
       </c>
       <c r="R4">
-        <v>76.87549033726499</v>
+        <v>0.295969845522</v>
       </c>
       <c r="S4">
-        <v>0.08895327838754705</v>
+        <v>0.0007295851809332119</v>
       </c>
       <c r="T4">
-        <v>0.08895327838754706</v>
+        <v>0.000729585180933212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6155033333333333</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H5">
-        <v>1.84651</v>
+        <v>16.348261</v>
       </c>
       <c r="I5">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704113</v>
       </c>
       <c r="J5">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704112</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.000565</v>
+        <v>2.133443333333334</v>
       </c>
       <c r="N5">
-        <v>30.001695</v>
+        <v>6.40033</v>
       </c>
       <c r="O5">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="P5">
-        <v>0.6316353758144477</v>
+        <v>0.2605947899689859</v>
       </c>
       <c r="Q5">
-        <v>6.155381092716667</v>
+        <v>11.62602948068111</v>
       </c>
       <c r="R5">
-        <v>55.39842983444999</v>
+        <v>104.63426532613</v>
       </c>
       <c r="S5">
-        <v>0.06410199050019018</v>
+        <v>0.257930362010828</v>
       </c>
       <c r="T5">
-        <v>0.06410199050019018</v>
+        <v>0.2579303620108279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6155033333333333</v>
+        <v>5.449420333333333</v>
       </c>
       <c r="H6">
-        <v>1.84651</v>
+        <v>16.348261</v>
       </c>
       <c r="I6">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704113</v>
       </c>
       <c r="J6">
-        <v>0.1014857510435278</v>
+        <v>0.9897755900704112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>12.79438</v>
       </c>
       <c r="O6">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846115</v>
       </c>
       <c r="P6">
-        <v>0.2693642149089528</v>
+        <v>0.5209338844846116</v>
       </c>
       <c r="Q6">
-        <v>2.624994512644444</v>
+        <v>23.24065150813111</v>
       </c>
       <c r="R6">
-        <v>23.6249506138</v>
+        <v>209.16586357318</v>
       </c>
       <c r="S6">
-        <v>0.02733662965428531</v>
+        <v>0.5156076429034279</v>
       </c>
       <c r="T6">
-        <v>0.02733662965428531</v>
+        <v>0.5156076429034279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.449420333333333</v>
+      </c>
+      <c r="H7">
+        <v>16.348261</v>
+      </c>
+      <c r="I7">
+        <v>0.9897755900704113</v>
+      </c>
+      <c r="J7">
+        <v>0.9897755900704112</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.788586</v>
+      </c>
+      <c r="N7">
+        <v>5.365758</v>
+      </c>
+      <c r="O7">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="P7">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="Q7">
+        <v>9.746756916315332</v>
+      </c>
+      <c r="R7">
+        <v>87.72081224683799</v>
+      </c>
+      <c r="S7">
+        <v>0.2162375851561553</v>
+      </c>
+      <c r="T7">
+        <v>0.2162375851561554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03790633333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.113719</v>
+      </c>
+      <c r="I8">
+        <v>0.006884909063246366</v>
+      </c>
+      <c r="J8">
+        <v>0.006884909063246365</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.133443333333334</v>
+      </c>
+      <c r="N8">
+        <v>6.40033</v>
+      </c>
+      <c r="O8">
+        <v>0.2605947899689859</v>
+      </c>
+      <c r="P8">
+        <v>0.2605947899689859</v>
+      </c>
+      <c r="Q8">
+        <v>0.08087101414111113</v>
+      </c>
+      <c r="R8">
+        <v>0.72783912727</v>
+      </c>
+      <c r="S8">
+        <v>0.001794171431292255</v>
+      </c>
+      <c r="T8">
+        <v>0.001794171431292254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.6155033333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.84651</v>
-      </c>
-      <c r="I7">
-        <v>0.1014857510435278</v>
-      </c>
-      <c r="J7">
-        <v>0.1014857510435278</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.567455</v>
-      </c>
-      <c r="N7">
-        <v>4.702364999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.09900040927659938</v>
-      </c>
-      <c r="P7">
-        <v>0.09900040927659938</v>
-      </c>
-      <c r="Q7">
-        <v>0.9647737773499998</v>
-      </c>
-      <c r="R7">
-        <v>8.682963996149999</v>
-      </c>
-      <c r="S7">
-        <v>0.01004713088905233</v>
-      </c>
-      <c r="T7">
-        <v>0.01004713088905233</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03790633333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.113719</v>
+      </c>
+      <c r="I9">
+        <v>0.006884909063246366</v>
+      </c>
+      <c r="J9">
+        <v>0.006884909063246365</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.264793333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.79438</v>
+      </c>
+      <c r="O9">
+        <v>0.5209338844846115</v>
+      </c>
+      <c r="P9">
+        <v>0.5209338844846116</v>
+      </c>
+      <c r="Q9">
+        <v>0.1616626776911111</v>
+      </c>
+      <c r="R9">
+        <v>1.45496409922</v>
+      </c>
+      <c r="S9">
+        <v>0.003586582422640238</v>
+      </c>
+      <c r="T9">
+        <v>0.003586582422640238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03790633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.113719</v>
+      </c>
+      <c r="I10">
+        <v>0.006884909063246366</v>
+      </c>
+      <c r="J10">
+        <v>0.006884909063246365</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.788586</v>
+      </c>
+      <c r="N10">
+        <v>5.365758</v>
+      </c>
+      <c r="O10">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="P10">
+        <v>0.2184713255464024</v>
+      </c>
+      <c r="Q10">
+        <v>0.06779873711133333</v>
+      </c>
+      <c r="R10">
+        <v>0.610188634002</v>
+      </c>
+      <c r="S10">
+        <v>0.001504155209313873</v>
+      </c>
+      <c r="T10">
+        <v>0.001504155209313873</v>
       </c>
     </row>
   </sheetData>
